--- a/classfiers/chatty/decisionTree/chatty-decisionTree-results.xlsx
+++ b/classfiers/chatty/decisionTree/chatty-decisionTree-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9798076923076923</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9951690821256038</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8985507246376813</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9975845410628019</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.7822510822510823</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.7405483405483406</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9742224080267559</v>
       </c>
     </row>
   </sheetData>
